--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3231531.367707866</v>
+        <v>3335711.002158937</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8094203.838161994</v>
+        <v>8094203.838161995</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>82.13306042727088</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>70.25071625446998</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>125.2625040355739</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>185.0337432424688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>354.6674978078453</v>
       </c>
       <c r="G5" t="n">
-        <v>399.1094057817434</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>83.47425054667265</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>106.0900968852911</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.4203810663446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>267.6507478308538</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>35.04032410925125</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1347,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.941344456569</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.8019480235367</v>
+        <v>160.1597912951064</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>79.70119244397802</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>96.02642072444172</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>80.08971311158803</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.7072979240947</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>24.83266606353065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.21356227238321</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>222.1774156618439</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>101.9154861872847</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>1.619672595757311</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>98.84732537601391</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.54490042790919</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.14989839348819</v>
+        <v>10.74993283584265</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.6197054599903095</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>166.684983322743</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4312223122555</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>105.11626575513</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>148.6282353729474</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>185.7933937888466</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968309</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>869.0763550278969</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>786.1136677276232</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2332.07795407525</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.6709106036544</v>
+        <v>588.395308462682</v>
       </c>
       <c r="C4" t="n">
-        <v>625.6709106036544</v>
+        <v>588.395308462682</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>438.2786690503463</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>290.3655754679531</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>290.3655754679531</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>290.3655754679531</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X4" t="n">
-        <v>625.6709106036544</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y4" t="n">
-        <v>625.6709106036544</v>
+        <v>588.395308462682</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.273285499503</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C5" t="n">
-        <v>1964.273285499503</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D5" t="n">
-        <v>1606.007586892752</v>
+        <v>863.5793116912607</v>
       </c>
       <c r="E5" t="n">
-        <v>1220.219334294508</v>
+        <v>477.7910590930165</v>
       </c>
       <c r="F5" t="n">
-        <v>809.2334295049004</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4607,10 +4609,10 @@
         <v>2741.012457539436</v>
       </c>
       <c r="X5" t="n">
-        <v>2741.012457539436</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y5" t="n">
-        <v>2350.873125563624</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.9995076393847</v>
+        <v>469.8823635670449</v>
       </c>
       <c r="C7" t="n">
-        <v>270.9995076393847</v>
+        <v>300.946180639138</v>
       </c>
       <c r="D7" t="n">
-        <v>270.9995076393847</v>
+        <v>150.8295412268023</v>
       </c>
       <c r="E7" t="n">
-        <v>270.9995076393847</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>270.9995076393847</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>270.9995076393847</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4726,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046023</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676417</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696244</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.6479724696244</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,10 +4816,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2360.367498328294</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940025</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4893,7 +4895,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.468527222536</v>
+        <v>396.7094242895083</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4993,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1306.899122094323</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1078.909571196306</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>858.1169920527757</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092259</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249848</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.58045691144</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5257,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5288,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714565</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872154</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1031.26032167505</v>
+        <v>2949.802511644066</v>
       </c>
       <c r="C16" t="n">
-        <v>862.3241387471435</v>
+        <v>2949.802511644066</v>
       </c>
       <c r="D16" t="n">
-        <v>712.2074993348077</v>
+        <v>2799.685872231731</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>2651.772778649337</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>2504.882831151427</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328844</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>4124.334764758701</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>3869.650276552814</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>3580.233106515853</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.70136564882</v>
+        <v>3352.243555617836</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.90878650529</v>
+        <v>3131.450976474306</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615669</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334542</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667835</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.01152569472</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740628</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>2233.355914590561</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>2233.355914590561</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>2567.280686761781</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872154</v>
+        <v>3062.60629297754</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>3659.984780604092</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>3659.984780604092</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>4211.894510843379</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4635.517660338447</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301209</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022983</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566168</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334425</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606223</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400691</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635737</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836023</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556954</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556954</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.294644713842</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>2877.8627132863</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>2727.746073873964</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>2727.746073873964</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>2580.856126376054</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2413.660027090934</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2413.660027090934</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.516248701935</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y28" t="n">
-        <v>3160.164713532175</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.5467179762944</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>815.6105350483875</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>665.4938956360518</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>517.5808020536587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>370.6908545557483</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6646,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>1166.195182806534</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C34" t="n">
-        <v>695.5020655703109</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D34" t="n">
-        <v>695.5020655703109</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E34" t="n">
-        <v>547.5889719879178</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6898,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6974,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>3114.186543342963</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>2945.250360415057</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>2795.133721002721</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>2647.220627420328</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3516.627587316733</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>3295.835008173203</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7436,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3047.734188001555</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>2878.798005073648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>2728.681365661313</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>3388.154264430192</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>3167.361685286662</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>3045.530642171613</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5477693179085</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="D46" t="n">
-        <v>762.5477693179085</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E46" t="n">
-        <v>614.6346757355154</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>467.744728237605</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>3227.179107001853</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>32.90770736550041</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>66.73277020259115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>190.1580536648024</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>66.34424953498115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.5874149221291418</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>142.4141550350972</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>6.052274046182305</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>64.34558267474708</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>65.33133491134311</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>250.5179707280707</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.27114962944304</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>144.8013425629409</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>13.14699685919427</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.40075786968184</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>16.89590291932146</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>32.79125956324816</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778555</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778553</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778558</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210059</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.954454091901425e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26451,10 +26453,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680581</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788705.1043992877</v>
+        <v>-788705.1043992875</v>
       </c>
       <c r="C6" t="n">
-        <v>540039.6413283054</v>
+        <v>540039.6413283049</v>
       </c>
       <c r="D6" t="n">
-        <v>540039.6413283056</v>
+        <v>540039.6413283049</v>
       </c>
       <c r="E6" t="n">
-        <v>288119.9718729365</v>
+        <v>288119.9718729371</v>
       </c>
       <c r="F6" t="n">
-        <v>613532.4336802925</v>
+        <v>613532.4336802926</v>
       </c>
       <c r="G6" t="n">
-        <v>613532.4336802923</v>
+        <v>613532.4336802921</v>
       </c>
       <c r="H6" t="n">
-        <v>613532.4336802929</v>
+        <v>613532.4336802926</v>
       </c>
       <c r="I6" t="n">
         <v>613532.4336802922</v>
@@ -26546,19 +26548,19 @@
         <v>396001.2312830151</v>
       </c>
       <c r="K6" t="n">
-        <v>613532.4336802922</v>
+        <v>613532.433680292</v>
       </c>
       <c r="L6" t="n">
-        <v>613532.4336802921</v>
+        <v>613532.4336802926</v>
       </c>
       <c r="M6" t="n">
-        <v>528477.4057447801</v>
+        <v>528477.4057447806</v>
       </c>
       <c r="N6" t="n">
         <v>613532.4336802926</v>
       </c>
       <c r="O6" t="n">
-        <v>613532.4336802926</v>
+        <v>613532.4336802925</v>
       </c>
       <c r="P6" t="n">
         <v>613532.4336802926</v>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,16 +26795,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>272.5499811934121</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>299.4803844239991</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>19.49251087874688</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>40.67591214656835</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>52.2085479338661</v>
       </c>
       <c r="G5" t="n">
-        <v>11.81231987171003</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>62.95971209989652</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>38.66491802902966</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.31346059713593</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>81.59022088655922</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>132.2064969893766</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>170.581653880022</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>144.2373595085328</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>359.7678776111906</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043757</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772175</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>300.5543663814913</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>195.8560084902126</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,19 +33499,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,31 +33736,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561987</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33910,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33980,10 +33982,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>6.395920534173761</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>217.6338436891722</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902436</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028584537</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>161.9999866016171</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>55.87423440419106</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728654</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37628,10 +37630,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3335711.002158937</v>
+        <v>3331698.392144944</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8094203.838161995</v>
+        <v>8094203.838161994</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>190.114520705018</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>70.25071625446998</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>125.2625040355739</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>54.26003672910096</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>173.6076827274344</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>354.6674978078453</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>83.47425054667265</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>39.47168301525321</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="W8" t="n">
-        <v>267.6507478308538</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>35.04032410925125</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>194.2137650431519</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>160.1597912951064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>96.02642072444172</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7072979240947</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>75.21356227238321</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>222.1774156618439</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>46.15319674220996</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>1.619672595757311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.84732537601391</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10.74993283584265</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6197054599903095</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.684983322743</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>105.11626575513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>185.7933937888466</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>1870.656190741329</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X2" t="n">
-        <v>2332.07795407525</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.938622099438</v>
+        <v>2257.25603080545</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>588.395308462682</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C4" t="n">
-        <v>588.395308462682</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D4" t="n">
-        <v>438.2786690503463</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>290.3655754679531</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>290.3655754679531</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3655754679531</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.177438504229</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X4" t="n">
-        <v>809.1878876062121</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y4" t="n">
-        <v>588.395308462682</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.807527238423</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C5" t="n">
-        <v>1221.845010298011</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>863.5793116912607</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>477.7910590930165</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4567,25 +4567,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278356</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.407367302545</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>469.8823635670449</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>300.946180639138</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>150.8295412268023</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1797.593703961926</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>872.3234075408147</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.5308283972846</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2360.367498328294</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.901740067214</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.7094242895083</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124868</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.7094242895083</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,34 +5053,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5293,22 +5293,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2949.802511644066</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>2949.802511644066</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>2799.685872231731</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>2651.772778649337</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>2504.882831151427</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>2337.686731866307</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>4623.787448650998</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>4221.331149328844</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>4124.334764758701</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>3869.650276552814</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>3580.233106515853</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>3352.243555617836</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>3131.450976474306</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192605</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590561</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590561</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2567.280686761781</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3062.60629297754</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3659.984780604092</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>3659.984780604092</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4211.894510843379</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>4635.517660338447</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398596</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>484.2179484367892</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>484.2179484367892</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.0218491516692</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3046.798896214207</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2877.8627132863</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>2727.746073873964</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2727.746073873964</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2580.856126376054</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2413.660027090934</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2413.660027090934</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085994</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187977</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.447361044447</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.279733667159</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.279733667159</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V28" t="n">
-        <v>1686.749820929699</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>1397.332650892738</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>1169.343099994721</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.5505208511906</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>793.6995478537118</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>643.582908441376</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>495.6698148589829</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3114.186543342963</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>2945.250360415057</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>2795.133721002721</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2647.220627420328</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3744.61713821475</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3516.627587316733</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3295.835008173203</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3025.687952571559</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,10 +7408,10 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3045.530642171613</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3227.179107001853</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>190.1580536648024</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5874149221291418</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6.052274046182305</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>64.34558267474708</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.8730892594346</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.98465480592338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>134.6711151870886</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>144.8013425629409</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.14699685919427</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.79125956324816</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708864.4957548627</v>
+        <v>708864.4957548628</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708864.4957548627</v>
+        <v>708864.4957548628</v>
       </c>
     </row>
     <row r="4">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778558</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778555</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
@@ -26325,37 +26325,37 @@
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210059</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="J2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.954454091901425e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815714</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.0109881571</v>
       </c>
-      <c r="D4" t="n">
-        <v>90964.01098815716</v>
-      </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26441,7 +26441,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788705.1043992875</v>
+        <v>-788705.1043992869</v>
       </c>
       <c r="C6" t="n">
-        <v>540039.6413283049</v>
+        <v>540039.6413283051</v>
       </c>
       <c r="D6" t="n">
-        <v>540039.6413283049</v>
+        <v>540039.6413283047</v>
       </c>
       <c r="E6" t="n">
-        <v>288119.9718729371</v>
+        <v>287772.59261858</v>
       </c>
       <c r="F6" t="n">
-        <v>613532.4336802926</v>
+        <v>613185.0544259355</v>
       </c>
       <c r="G6" t="n">
-        <v>613532.4336802921</v>
+        <v>613185.054425935</v>
       </c>
       <c r="H6" t="n">
-        <v>613532.4336802926</v>
+        <v>613185.0544259355</v>
       </c>
       <c r="I6" t="n">
-        <v>613532.4336802922</v>
+        <v>613185.0544259353</v>
       </c>
       <c r="J6" t="n">
-        <v>396001.2312830151</v>
+        <v>395653.8520286579</v>
       </c>
       <c r="K6" t="n">
-        <v>613532.433680292</v>
+        <v>613185.0544259354</v>
       </c>
       <c r="L6" t="n">
-        <v>613532.4336802926</v>
+        <v>613185.0544259356</v>
       </c>
       <c r="M6" t="n">
-        <v>528477.4057447806</v>
+        <v>528130.0264904237</v>
       </c>
       <c r="N6" t="n">
-        <v>613532.4336802926</v>
+        <v>613185.0544259355</v>
       </c>
       <c r="O6" t="n">
-        <v>613532.4336802925</v>
+        <v>613185.0544259353</v>
       </c>
       <c r="P6" t="n">
-        <v>613532.4336802926</v>
+        <v>613185.0544259356</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,13 +26807,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>175.1583710659895</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>299.4803844239991</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>19.49251087874688</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.9518014765119</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>191.6652090435732</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>52.2085479338661</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>62.95971209989652</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>150.2973423161887</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923771</v>
       </c>
       <c r="W8" t="n">
-        <v>81.59022088655922</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>132.2064969893766</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>24.37088830894285</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-5.780283390417846e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>359.7678776111906</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043757</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.8560084902126</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>526.2989357561987</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>217.6338436891722</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902436</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>481.5356082478341</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.87423440419106</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9572236728654</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3331698.392144944</v>
+        <v>3333458.922447729</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902432</v>
       </c>
       <c r="C2" t="n">
-        <v>190.114520705018</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734129911</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>51.06561173382142</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.26003672910096</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>173.6076827274344</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074483282</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881757</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247736</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734134413</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>71.98153210089647</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>39.47168301525321</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>201.6622187863209</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777578</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>194.2137650431519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888319</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514225</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457615</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695236</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>115.2302178375813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>166.3208822291519</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>46.15319674220996</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>59.96838802184492</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1870.656190741329</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052372</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.31515313627</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520492</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794328</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450757</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450757</v>
       </c>
       <c r="X2" t="n">
-        <v>2257.25603080545</v>
+        <v>2424.744041450757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2257.25603080545</v>
+        <v>2424.744041450757</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>697.9541770656748</v>
+        <v>752.7622949738593</v>
       </c>
       <c r="C4" t="n">
-        <v>529.0179941377679</v>
+        <v>583.8261120459524</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336167</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512235</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279957</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764921</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760413</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.07675150232</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="U4" t="n">
-        <v>1872.48643018031</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="V4" t="n">
-        <v>1617.801941974423</v>
+        <v>1672.610059882607</v>
       </c>
       <c r="W4" t="n">
-        <v>1328.384771937462</v>
+        <v>1383.192889845647</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.395221039445</v>
+        <v>1155.203338947629</v>
       </c>
       <c r="Y4" t="n">
-        <v>879.6026418959145</v>
+        <v>934.410759804099</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1853.982617026598</v>
+        <v>1698.509627919563</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1698.509627919563</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912093</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052372</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.31515313627</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520492</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794328</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450757</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.975386180643</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>1698.509627919563</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.582457090719</v>
+        <v>1698.509627919563</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158143</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438131</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992586</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>753.0765981364634</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>584.1404152085565</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>434.0237757962208</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>286.1106822138277</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>139.2207347159173</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>139.2207347159173</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>139.2207347159173</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791192</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279958</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764921</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760414</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.07675150232</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S7" t="n">
-        <v>1797.593703961926</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="T7" t="n">
-        <v>1575.827088531452</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="U7" t="n">
-        <v>1575.827088531452</v>
+        <v>1638.191681214138</v>
       </c>
       <c r="V7" t="n">
-        <v>1575.827088531452</v>
+        <v>1383.507193008251</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1383.507193008251</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1155.517642110233</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>934.7250629667031</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D13" t="n">
         <v>402.7245934908938</v>
@@ -5193,10 +5193,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="17">
@@ -5494,55 +5494,55 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5743,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,43 +5816,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876705</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>580.8993044876705</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>580.8993044876705</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>580.8993044876705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>434.0093569897602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614402</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179101</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5995,46 +5995,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,67 +7074,67 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
         <v>1056.188523744657</v>
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7666,10 +7666,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-1.041474299280731e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-3.045449435591484e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>50.29392045468741</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.8730892594346</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472424</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708864.4957548628</v>
+        <v>708864.4957548627</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708864.4957548628</v>
+        <v>708864.4957548627</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
         <v>726431.939721005</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210055</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.751052902967804e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.6413120529039e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815686</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815685</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815702</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680599</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26450,10 +26450,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613934</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613934</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788705.1043992869</v>
+        <v>-788705.1043992883</v>
       </c>
       <c r="C6" t="n">
-        <v>540039.6413283051</v>
+        <v>540039.6413283049</v>
       </c>
       <c r="D6" t="n">
-        <v>540039.6413283047</v>
+        <v>540039.6413283055</v>
       </c>
       <c r="E6" t="n">
-        <v>287772.59261858</v>
+        <v>288085.2339475014</v>
       </c>
       <c r="F6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="G6" t="n">
-        <v>613185.054425935</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="H6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="I6" t="n">
-        <v>613185.0544259353</v>
+        <v>613497.695754857</v>
       </c>
       <c r="J6" t="n">
-        <v>395653.8520286579</v>
+        <v>395966.493357579</v>
       </c>
       <c r="K6" t="n">
-        <v>613185.0544259354</v>
+        <v>613497.6957548569</v>
       </c>
       <c r="L6" t="n">
-        <v>613185.0544259356</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="M6" t="n">
-        <v>528130.0264904237</v>
+        <v>528442.6678193451</v>
       </c>
       <c r="N6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="O6" t="n">
-        <v>613185.0544259353</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="P6" t="n">
-        <v>613185.0544259356</v>
+        <v>613497.6957548569</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.689344965865156e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,22 +26916,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.438816128709755e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.438816128709755e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>303.9530049144562</v>
       </c>
       <c r="C2" t="n">
-        <v>175.1583710659895</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>94.35543628910983</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>231.9518014765119</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>191.6652090435732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.9183408758502</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24.37088830894157</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004726</v>
       </c>
       <c r="S7" t="n">
-        <v>150.2973423161887</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>2.255751353299274</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911068</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.37088830894285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-5.780283390417846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.689344965865156e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.056421872075505e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681602</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844671</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003815</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.35652936232</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490575</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009503</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099066</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746419</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806959</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345281</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752264</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.461131202644</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.95656191388</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.928301823348</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837929</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002931</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.5396634623832</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898506</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462217</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311881</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742024</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316435</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712223</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553039</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112303</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>732.482598761492</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362267</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554009</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923327</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129122</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882198</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193723</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222501</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359773</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340058</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013296</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004597</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.112403452581</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859628</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306634</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443198</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934841</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.35313022264</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.3942385378938</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394736</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36287,13 +36287,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402486</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
